--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -17418,7 +17418,11 @@
       </c>
       <c r="H130" s="4" t="inlineStr"/>
       <c r="I130" s="4" t="inlineStr"/>
-      <c r="J130" s="4" t="inlineStr"/>
+      <c r="J130" s="3" t="inlineStr">
+        <is>
+          <t>Dossier</t>
+        </is>
+      </c>
       <c r="K130" s="4" t="inlineStr"/>
       <c r="L130" s="4" t="inlineStr"/>
       <c r="M130" s="4" t="inlineStr"/>
@@ -19128,7 +19132,11 @@
       </c>
       <c r="H155" s="4" t="inlineStr"/>
       <c r="I155" s="4" t="inlineStr"/>
-      <c r="J155" s="4" t="inlineStr"/>
+      <c r="J155" s="3" t="inlineStr">
+        <is>
+          <t>Insérez une carte SD pour ajouter des fichiers</t>
+        </is>
+      </c>
       <c r="K155" s="4" t="inlineStr"/>
       <c r="L155" s="4" t="inlineStr"/>
       <c r="M155" s="3" t="inlineStr">
@@ -26882,7 +26890,11 @@
       <c r="G241" s="4" t="inlineStr"/>
       <c r="H241" s="4" t="inlineStr"/>
       <c r="I241" s="4" t="inlineStr"/>
-      <c r="J241" s="4" t="inlineStr"/>
+      <c r="J241" s="3" t="inlineStr">
+        <is>
+          <t>Sélectionner tout</t>
+        </is>
+      </c>
       <c r="K241" s="4" t="inlineStr"/>
       <c r="L241" s="4" t="inlineStr"/>
       <c r="M241" s="4" t="inlineStr"/>
@@ -27504,7 +27516,11 @@
       </c>
       <c r="H247" s="4" t="inlineStr"/>
       <c r="I247" s="4" t="inlineStr"/>
-      <c r="J247" s="4" t="inlineStr"/>
+      <c r="J247" s="3" t="inlineStr">
+        <is>
+          <t>Fichier unique</t>
+        </is>
+      </c>
       <c r="K247" s="4" t="inlineStr"/>
       <c r="L247" s="4" t="inlineStr"/>
       <c r="M247" s="4" t="inlineStr"/>
@@ -28022,7 +28038,11 @@
       <c r="G253" s="4" t="inlineStr"/>
       <c r="H253" s="4" t="inlineStr"/>
       <c r="I253" s="4" t="inlineStr"/>
-      <c r="J253" s="4" t="inlineStr"/>
+      <c r="J253" s="3" t="inlineStr">
+        <is>
+          <t>Code source</t>
+        </is>
+      </c>
       <c r="K253" s="4" t="inlineStr"/>
       <c r="L253" s="4" t="inlineStr"/>
       <c r="M253" s="3" t="inlineStr">
